--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Vinaphone.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Vinaphone.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,30 @@
   </si>
   <si>
     <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>20190620650335.</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>20190620650135.</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>device.vnpttracking.vn,36033</t>
+  </si>
+  <si>
+    <t>20180580250333.</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
   </si>
 </sst>
 </file>
@@ -767,6 +791,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,37 +839,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1128,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1160,43 +1184,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1241,58 +1265,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="103" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1317,24 +1341,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1356,11 +1380,19 @@
       <c r="G6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="60"/>
+      <c r="H6" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>84</v>
+      </c>
       <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
+      <c r="K6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>86</v>
+      </c>
       <c r="M6" s="53"/>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
@@ -1370,7 +1402,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="87" t="s">
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1401,7 +1433,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="88"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1462,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="88"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1491,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="88"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1488,7 +1520,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="88"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1549,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="88"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1546,7 +1578,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="87" t="s">
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1577,7 +1609,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="88"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1606,7 +1638,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="88"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1667,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="66"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="88"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1696,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="66"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="89"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2898,10 +2930,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="90" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="90">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2930,8 +2962,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2957,8 +2989,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="92"/>
-      <c r="W58" s="92"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4245,6 +4277,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4255,16 +4297,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4275,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4307,43 +4339,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -4388,58 +4420,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="103" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4464,24 +4496,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4504,10 +4536,16 @@
         <v>67</v>
       </c>
       <c r="H6" s="67"/>
-      <c r="I6" s="71"/>
+      <c r="I6" s="71" t="s">
+        <v>75</v>
+      </c>
       <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
+      <c r="K6" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>68</v>
+      </c>
       <c r="M6" s="53"/>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
@@ -4517,7 +4555,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="87" t="s">
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4544,11 +4582,19 @@
       <c r="G7" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="71"/>
+      <c r="H7" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="53"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="K7" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>68</v>
+      </c>
       <c r="M7" s="53"/>
       <c r="N7" s="55"/>
       <c r="O7" s="53"/>
@@ -4558,7 +4604,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="88"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4584,10 +4630,16 @@
         <v>67</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="71"/>
+      <c r="I8" s="71" t="s">
+        <v>75</v>
+      </c>
       <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="K8" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>68</v>
+      </c>
       <c r="M8" s="53"/>
       <c r="N8" s="55"/>
       <c r="O8" s="53"/>
@@ -4597,7 +4649,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="88"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4646,7 +4698,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="88"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4691,7 +4743,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="88"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4736,7 +4788,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="88"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4761,7 +4813,9 @@
       <c r="G12" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="51"/>
+      <c r="H12" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="I12" s="71" t="s">
         <v>76</v>
       </c>
@@ -4781,7 +4835,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="87" t="s">
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4812,7 +4866,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="88"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4828,7 +4882,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="67"/>
-      <c r="I14" s="104"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="86"/>
       <c r="K14" s="83"/>
       <c r="L14" s="56"/>
@@ -4841,7 +4895,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="88"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4870,7 +4924,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="88"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4899,7 +4953,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="89"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6133,10 +6187,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="90" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="90">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6165,8 +6219,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6192,8 +6246,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="92"/>
-      <c r="W58" s="92"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7480,6 +7534,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7490,16 +7554,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7542,43 +7596,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7623,58 +7677,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="93"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="103" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="93" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7699,24 +7753,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7742,7 +7796,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="87" t="s">
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7773,7 +7827,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="88"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7802,7 +7856,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="88"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7831,7 +7885,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="88"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7860,7 +7914,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="88"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7889,7 +7943,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="88"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7918,7 +7972,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="87" t="s">
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7949,7 +8003,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="88"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7978,7 +8032,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="88"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8007,7 +8061,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="88"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8036,7 +8090,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="89"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9270,10 +9324,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="90" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="90">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9302,8 +9356,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9329,8 +9383,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="92"/>
-      <c r="W58" s="92"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10617,6 +10671,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10627,16 +10691,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Vinaphone.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Vinaphone.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>04/12/2020</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -794,30 +806,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,10 +827,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1152,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1184,43 +1196,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1265,58 +1277,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1341,24 +1353,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1367,7 +1379,9 @@
       <c r="B6" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>47</v>
       </c>
@@ -1393,16 +1407,26 @@
       <c r="L6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1433,7 +1457,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1462,7 +1486,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1515,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1520,7 +1544,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1549,7 +1573,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1602,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1609,7 +1633,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1662,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1667,7 +1691,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="66"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1720,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="66"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1815,7 +1839,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2284,7 +2308,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2348,7 +2372,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,10 +2954,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2962,8 +2986,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2989,8 +3013,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4277,6 +4301,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4287,16 +4321,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4307,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4339,43 +4363,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -4420,58 +4444,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4496,24 +4520,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4522,7 +4546,9 @@
       <c r="B6" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -4546,16 +4572,26 @@
       <c r="L6" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4569,7 +4605,9 @@
       <c r="B7" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -4595,16 +4633,26 @@
       <c r="L7" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="O7" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4616,7 +4664,9 @@
       <c r="B8" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>44</v>
       </c>
@@ -4640,16 +4690,26 @@
       <c r="L8" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="O8" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4661,7 +4721,9 @@
       <c r="B9" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>44</v>
       </c>
@@ -4689,16 +4751,26 @@
       <c r="L9" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4710,7 +4782,9 @@
       <c r="B10" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>44</v>
       </c>
@@ -4734,16 +4808,26 @@
       <c r="L10" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="51"/>
+      <c r="O10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4755,7 +4839,9 @@
       <c r="B11" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="80"/>
+      <c r="C11" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="D11" s="51" t="s">
         <v>44</v>
       </c>
@@ -4779,16 +4865,26 @@
       <c r="L11" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="53"/>
+      <c r="M11" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4800,7 +4896,9 @@
       <c r="B12" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="80"/>
+      <c r="C12" s="80" t="s">
+        <v>87</v>
+      </c>
       <c r="D12" s="51" t="s">
         <v>44</v>
       </c>
@@ -4826,16 +4924,26 @@
       <c r="L12" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="53"/>
+      <c r="M12" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4866,7 +4974,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4895,7 +5003,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4924,7 +5032,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4953,7 +5061,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5072,7 +5180,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5541,7 +5649,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,7 +5713,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6187,10 +6295,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6219,8 +6327,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6246,8 +6354,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7534,6 +7642,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7544,16 +7662,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7596,43 +7704,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7677,58 +7785,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7753,24 +7861,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7796,7 +7904,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7827,7 +7935,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7856,7 +7964,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7885,7 +7993,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7914,7 +8022,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7943,7 +8051,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7972,7 +8080,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8003,7 +8111,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8032,7 +8140,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8061,7 +8169,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8090,7 +8198,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9324,10 +9432,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9356,8 +9464,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9383,8 +9491,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10671,6 +10779,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10681,16 +10799,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Vinaphone.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Vinaphone.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -854,30 +854,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -899,10 +875,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1244,43 +1244,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="67"/>
@@ -1325,58 +1325,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="92" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1401,24 +1401,24 @@
       <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1474,7 +1474,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="65"/>
-      <c r="V6" s="95" t="s">
+      <c r="V6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1537,7 +1537,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="65"/>
-      <c r="V7" s="96"/>
+      <c r="V7" s="88"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="65"/>
-      <c r="V8" s="96"/>
+      <c r="V8" s="88"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
       <c r="U9" s="65"/>
-      <c r="V9" s="96"/>
+      <c r="V9" s="88"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
       <c r="U10" s="65"/>
-      <c r="V10" s="96"/>
+      <c r="V10" s="88"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
       <c r="U11" s="65"/>
-      <c r="V11" s="96"/>
+      <c r="V11" s="88"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
       <c r="U12" s="65"/>
-      <c r="V12" s="95" t="s">
+      <c r="V12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1775,7 +1775,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
       <c r="U13" s="65"/>
-      <c r="V13" s="96"/>
+      <c r="V13" s="88"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
-      <c r="V14" s="96"/>
+      <c r="V14" s="88"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="65"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="96"/>
+      <c r="V15" s="88"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="65"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="97"/>
+      <c r="V16" s="89"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3096,10 +3096,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="98" t="s">
+      <c r="V56" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="98">
+      <c r="W56" s="90">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3128,8 +3128,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="99"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3155,8 +3155,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="100"/>
-      <c r="W58" s="100"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="92"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4443,6 +4443,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4453,16 +4463,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4473,8 +4473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4505,43 +4505,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="67"/>
@@ -4586,58 +4586,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="92" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4662,24 +4662,24 @@
       <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4733,7 +4733,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="62"/>
-      <c r="V6" s="95" t="s">
+      <c r="V6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4794,7 +4794,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="62"/>
-      <c r="V7" s="96"/>
+      <c r="V7" s="88"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="96"/>
+      <c r="V8" s="88"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="96"/>
+      <c r="V9" s="88"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4969,7 +4969,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="96"/>
+      <c r="V10" s="88"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5026,7 +5026,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
       <c r="U11" s="62"/>
-      <c r="V11" s="96"/>
+      <c r="V11" s="88"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5085,7 +5085,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
       <c r="U12" s="62"/>
-      <c r="V12" s="95" t="s">
+      <c r="V12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5116,7 +5116,7 @@
       <c r="S13" s="85"/>
       <c r="T13" s="62"/>
       <c r="U13" s="62"/>
-      <c r="V13" s="96"/>
+      <c r="V13" s="88"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="S14" s="85"/>
       <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="96"/>
+      <c r="V14" s="88"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="62"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="96"/>
+      <c r="V15" s="88"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="62"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="97"/>
+      <c r="V16" s="89"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6437,10 +6437,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="98" t="s">
+      <c r="V56" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="98">
+      <c r="W56" s="90">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6469,8 +6469,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="99"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6496,8 +6496,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="100"/>
-      <c r="W58" s="100"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="92"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7784,6 +7784,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7794,16 +7804,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7814,8 +7814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7846,43 +7846,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -7927,58 +7927,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="92" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8003,50 +8003,80 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
+      <c r="B6" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="51">
+        <v>8626310347108970</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>84</v>
+      </c>
       <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="K6" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="95" t="s">
+      <c r="V6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8057,27 +8087,59 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="49">
+        <v>44182</v>
+      </c>
+      <c r="C7" s="49">
+        <v>44183</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="51">
+        <v>861694031783218</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="O7" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>98</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="96"/>
+      <c r="V7" s="88"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8086,27 +8148,57 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="49">
+        <v>44182</v>
+      </c>
+      <c r="C8" s="49">
+        <v>44183</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="51">
+        <v>861694031771940</v>
+      </c>
       <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="G8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>96</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
+      <c r="O8" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>101</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="96"/>
+      <c r="V8" s="88"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8115,27 +8207,59 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="B9" s="49">
+        <v>44184</v>
+      </c>
+      <c r="C9" s="49">
+        <v>44186</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="51">
+        <v>864811037261380</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>105</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="96"/>
+      <c r="V9" s="88"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8144,27 +8268,55 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
+      <c r="B10" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="51">
+        <v>868183034560602</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="70" t="s">
+        <v>75</v>
+      </c>
       <c r="J10" s="52"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="55"/>
+      <c r="K10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="96"/>
+      <c r="V10" s="88"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8173,27 +8325,57 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="52"/>
+      <c r="B11" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="51">
+        <v>868183034519590</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>76</v>
+      </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="K11" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
+      <c r="O11" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="96"/>
+      <c r="V11" s="88"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8202,27 +8384,55 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="52"/>
+      <c r="B12" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="51">
+        <v>868183033878906</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="70" t="s">
+        <v>75</v>
+      </c>
       <c r="J12" s="52"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="K12" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
+      <c r="O12" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="95" t="s">
+      <c r="V12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8233,27 +8443,59 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="B13" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868183034548755</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="N13" s="54"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="50"/>
+      <c r="O13" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="96"/>
+      <c r="V13" s="88"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8262,27 +8504,55 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="70"/>
+      <c r="B14" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868183034676226</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="70" t="s">
+        <v>75</v>
+      </c>
       <c r="J14" s="52"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="55"/>
+      <c r="K14" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="54"/>
+      <c r="O14" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="96"/>
+      <c r="V14" s="88"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8291,27 +8561,55 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="B15" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="51">
+        <v>868183034535968</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H15" s="50"/>
-      <c r="I15" s="70"/>
+      <c r="I15" s="70" t="s">
+        <v>75</v>
+      </c>
       <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="K15" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="N15" s="54"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="50"/>
+      <c r="O15" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="96"/>
+      <c r="V15" s="88"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8320,27 +8618,57 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="70"/>
+      <c r="B16" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="51">
+        <v>868183034692744</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>76</v>
+      </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="55"/>
+      <c r="K16" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="54"/>
+      <c r="O16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="97"/>
+      <c r="V16" s="89"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8459,7 +8787,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8523,7 +8851,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8704,7 +9032,7 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8768,7 +9096,7 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8800,7 +9128,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8928,7 +9256,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8992,7 +9320,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9259,7 +9587,7 @@
       </c>
       <c r="W46" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9355,7 +9683,7 @@
       </c>
       <c r="W49" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9574,10 +9902,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="98" t="s">
+      <c r="V56" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="98">
+      <c r="W56" s="90">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9606,8 +9934,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="99"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9633,8 +9961,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="100"/>
-      <c r="W58" s="100"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="92"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10921,6 +11249,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10931,16 +11269,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
